--- a/data.xlsx
+++ b/data.xlsx
@@ -5,20 +5,21 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwar\Downloads\Telegram Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwar\Documents\P4P Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7718045F-0826-47DA-8A2C-CB48FE257B19}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C977CD56-64F2-4459-B3BE-2AADCC66B42B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="27977" windowHeight="18120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16320" yWindow="5150" windowWidth="21450" windowHeight="15460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="jHsrJeKkL" sheetId="1" r:id="rId1"/>
     <sheet name="E-q9aoNOe6" sheetId="2" r:id="rId2"/>
-    <sheet name="INDEX" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="INDEX" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'E-q9aoNOe6'!$A$1:$K$854</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'E-q9aoNOe6'!$A$1:$L$854</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6552" uniqueCount="2214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6558" uniqueCount="2216">
   <si>
     <t>doc_id</t>
   </si>
@@ -7243,6 +7244,12 @@
   </si>
   <si>
     <t>Sort</t>
+  </si>
+  <si>
+    <t>"Wrong"</t>
+  </si>
+  <si>
+    <t>QuestionF</t>
   </si>
 </sst>
 </file>
@@ -7626,9 +7633,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7636,7 +7643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -7644,7 +7651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -7652,7 +7659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -7660,7 +7667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -7668,7 +7675,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -7676,7 +7683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -7684,7 +7691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -7692,7 +7699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -7700,7 +7707,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -7708,7 +7715,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -7716,7 +7723,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -7724,7 +7731,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -7732,7 +7739,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -7740,7 +7747,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -7748,7 +7755,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -7756,7 +7763,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -7764,7 +7771,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -7772,7 +7779,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -7780,7 +7787,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -7788,7 +7795,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -7796,7 +7803,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -7815,25 +7822,25 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K854"/>
+  <dimension ref="A1:L868"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView zoomScale="84" workbookViewId="0">
+      <selection activeCell="H857" sqref="H857"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="11.92578125" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="24.35546875" customWidth="1"/>
-    <col min="6" max="6" width="28.2109375" customWidth="1"/>
+    <col min="3" max="3" width="11.9140625" customWidth="1"/>
+    <col min="4" max="4" width="17.25" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="6" max="6" width="28.25" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="104" customWidth="1"/>
+    <col min="10" max="10" width="132.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7867,8 +7874,11 @@
       <c r="K1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L1" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -7894,7 +7904,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -7920,7 +7930,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>328</v>
       </c>
@@ -7946,7 +7956,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -7975,7 +7985,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -7995,7 +8005,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -8021,7 +8031,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -8050,7 +8060,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -8070,7 +8080,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -8090,7 +8100,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>93</v>
       </c>
@@ -8116,7 +8126,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1005</v>
       </c>
@@ -8135,8 +8145,11 @@
       <c r="I12" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>1115</v>
       </c>
@@ -8155,8 +8168,11 @@
       <c r="I13" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>100</v>
       </c>
@@ -8176,7 +8192,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>103</v>
       </c>
@@ -8196,7 +8212,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>106</v>
       </c>
@@ -8222,7 +8238,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>837</v>
       </c>
@@ -8241,8 +8257,11 @@
       <c r="I17" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -8271,7 +8290,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>116</v>
       </c>
@@ -8300,7 +8319,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>121</v>
       </c>
@@ -8329,7 +8348,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>126</v>
       </c>
@@ -8358,7 +8377,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>130</v>
       </c>
@@ -8387,7 +8406,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>1956</v>
       </c>
@@ -8406,8 +8425,11 @@
       <c r="I23" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>136</v>
       </c>
@@ -8427,7 +8449,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>194</v>
       </c>
@@ -8446,8 +8468,11 @@
       <c r="I25" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>141</v>
       </c>
@@ -8473,7 +8498,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>144</v>
       </c>
@@ -8493,7 +8518,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>2049</v>
       </c>
@@ -8512,8 +8537,11 @@
       <c r="I28" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>148</v>
       </c>
@@ -8533,7 +8561,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>150</v>
       </c>
@@ -8553,7 +8581,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>2147</v>
       </c>
@@ -8572,8 +8600,11 @@
       <c r="I31" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>154</v>
       </c>
@@ -8599,7 +8630,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>510</v>
       </c>
@@ -8628,7 +8659,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>159</v>
       </c>
@@ -8648,7 +8679,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>2128</v>
       </c>
@@ -8667,8 +8698,11 @@
       <c r="I35" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>163</v>
       </c>
@@ -8694,7 +8728,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>461</v>
       </c>
@@ -8713,8 +8747,11 @@
       <c r="I37" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>170</v>
       </c>
@@ -8743,7 +8780,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>175</v>
       </c>
@@ -8763,7 +8800,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>177</v>
       </c>
@@ -8789,7 +8826,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>1179</v>
       </c>
@@ -8818,7 +8855,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>182</v>
       </c>
@@ -8847,7 +8884,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>185</v>
       </c>
@@ -8876,7 +8913,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>191</v>
       </c>
@@ -8905,7 +8942,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>932</v>
       </c>
@@ -8924,8 +8961,11 @@
       <c r="I45" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>1678</v>
       </c>
@@ -8944,8 +8984,11 @@
       <c r="I46" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>200</v>
       </c>
@@ -8965,7 +9008,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>202</v>
       </c>
@@ -8994,7 +9037,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>205</v>
       </c>
@@ -9020,7 +9063,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>209</v>
       </c>
@@ -9040,7 +9083,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>211</v>
       </c>
@@ -9060,7 +9103,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>213</v>
       </c>
@@ -9089,7 +9132,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>218</v>
       </c>
@@ -9118,7 +9161,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>223</v>
       </c>
@@ -9138,7 +9181,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>225</v>
       </c>
@@ -9158,7 +9201,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>227</v>
       </c>
@@ -9178,7 +9221,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>230</v>
       </c>
@@ -9207,7 +9250,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>234</v>
       </c>
@@ -9233,7 +9276,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>237</v>
       </c>
@@ -9262,7 +9305,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>241</v>
       </c>
@@ -9288,7 +9331,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>243</v>
       </c>
@@ -9308,7 +9351,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>245</v>
       </c>
@@ -9334,7 +9377,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>248</v>
       </c>
@@ -9363,7 +9406,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>252</v>
       </c>
@@ -9392,7 +9435,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>255</v>
       </c>
@@ -9418,7 +9461,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>258</v>
       </c>
@@ -9444,7 +9487,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>261</v>
       </c>
@@ -9464,7 +9507,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>263</v>
       </c>
@@ -9490,7 +9533,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>266</v>
       </c>
@@ -9510,7 +9553,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>268</v>
       </c>
@@ -9539,7 +9582,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>272</v>
       </c>
@@ -9559,7 +9602,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>274</v>
       </c>
@@ -9585,7 +9628,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>276</v>
       </c>
@@ -9614,7 +9657,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>279</v>
       </c>
@@ -9640,7 +9683,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>1394</v>
       </c>
@@ -9659,8 +9702,11 @@
       <c r="I75" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>284</v>
       </c>
@@ -9680,7 +9726,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>286</v>
       </c>
@@ -9700,7 +9746,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>288</v>
       </c>
@@ -9729,7 +9775,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>291</v>
       </c>
@@ -9758,7 +9804,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>294</v>
       </c>
@@ -9784,7 +9830,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>297</v>
       </c>
@@ -9804,7 +9850,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>299</v>
       </c>
@@ -9824,7 +9870,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>1499</v>
       </c>
@@ -9853,7 +9899,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>303</v>
       </c>
@@ -9879,7 +9925,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>306</v>
       </c>
@@ -9908,7 +9954,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>309</v>
       </c>
@@ -9928,7 +9974,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>1185</v>
       </c>
@@ -9947,8 +9993,11 @@
       <c r="I87" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>313</v>
       </c>
@@ -9968,7 +10017,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>315</v>
       </c>
@@ -9997,7 +10046,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>319</v>
       </c>
@@ -10017,7 +10066,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>321</v>
       </c>
@@ -10046,7 +10095,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>325</v>
       </c>
@@ -10072,7 +10121,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>1080</v>
       </c>
@@ -10101,7 +10150,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>331</v>
       </c>
@@ -10130,7 +10179,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>335</v>
       </c>
@@ -10159,7 +10208,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>339</v>
       </c>
@@ -10188,7 +10237,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>343</v>
       </c>
@@ -10217,7 +10266,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>345</v>
       </c>
@@ -10243,7 +10292,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>347</v>
       </c>
@@ -10263,7 +10312,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>349</v>
       </c>
@@ -10283,7 +10332,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>351</v>
       </c>
@@ -10312,7 +10361,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>354</v>
       </c>
@@ -10332,7 +10381,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>1291</v>
       </c>
@@ -10358,7 +10407,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>358</v>
       </c>
@@ -10378,7 +10427,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>360</v>
       </c>
@@ -10404,7 +10453,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>363</v>
       </c>
@@ -10430,7 +10479,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>365</v>
       </c>
@@ -10450,7 +10499,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>367</v>
       </c>
@@ -10470,7 +10519,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>369</v>
       </c>
@@ -10490,7 +10539,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>371</v>
       </c>
@@ -10516,7 +10565,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>374</v>
       </c>
@@ -10545,7 +10594,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>378</v>
       </c>
@@ -10565,7 +10614,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>380</v>
       </c>
@@ -10591,7 +10640,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>383</v>
       </c>
@@ -10620,7 +10669,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>386</v>
       </c>
@@ -10646,7 +10695,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>388</v>
       </c>
@@ -10666,7 +10715,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>390</v>
       </c>
@@ -10692,7 +10741,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>392</v>
       </c>
@@ -10718,7 +10767,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>395</v>
       </c>
@@ -10744,7 +10793,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>398</v>
       </c>
@@ -10770,7 +10819,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>400</v>
       </c>
@@ -10796,7 +10845,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>457</v>
       </c>
@@ -10815,8 +10864,11 @@
       <c r="I122" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>405</v>
       </c>
@@ -10845,7 +10897,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>1195</v>
       </c>
@@ -10871,7 +10923,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>410</v>
       </c>
@@ -10900,7 +10952,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>413</v>
       </c>
@@ -10926,7 +10978,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>416</v>
       </c>
@@ -10952,7 +11004,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>418</v>
       </c>
@@ -10972,7 +11024,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>420</v>
       </c>
@@ -11001,7 +11053,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>423</v>
       </c>
@@ -11021,7 +11073,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>425</v>
       </c>
@@ -11041,7 +11093,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>825</v>
       </c>
@@ -11060,8 +11112,11 @@
       <c r="I132" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>429</v>
       </c>
@@ -11087,7 +11142,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>432</v>
       </c>
@@ -11107,7 +11162,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>434</v>
       </c>
@@ -11136,7 +11191,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>437</v>
       </c>
@@ -11162,7 +11217,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>440</v>
       </c>
@@ -11191,7 +11246,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>444</v>
       </c>
@@ -11211,7 +11266,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>446</v>
       </c>
@@ -11240,7 +11295,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>449</v>
       </c>
@@ -11260,7 +11315,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="17.05" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:12" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>451</v>
       </c>
@@ -11289,7 +11344,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>454</v>
       </c>
@@ -11315,7 +11370,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>1063</v>
       </c>
@@ -11334,8 +11389,11 @@
       <c r="I143" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>459</v>
       </c>
@@ -11355,7 +11413,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>1065</v>
       </c>
@@ -11374,8 +11432,11 @@
       <c r="I145" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>463</v>
       </c>
@@ -11401,7 +11462,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>466</v>
       </c>
@@ -11427,7 +11488,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>468</v>
       </c>
@@ -11456,7 +11517,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>471</v>
       </c>
@@ -11485,7 +11546,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>474</v>
       </c>
@@ -11505,7 +11566,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>476</v>
       </c>
@@ -11534,7 +11595,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>479</v>
       </c>
@@ -11563,7 +11624,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>482</v>
       </c>
@@ -11592,7 +11653,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>485</v>
       </c>
@@ -11618,7 +11679,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>488</v>
       </c>
@@ -11644,7 +11705,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>490</v>
       </c>
@@ -11664,7 +11725,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>492</v>
       </c>
@@ -11693,7 +11754,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>495</v>
       </c>
@@ -11722,7 +11783,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>499</v>
       </c>
@@ -11751,7 +11812,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>501</v>
       </c>
@@ -11780,7 +11841,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>504</v>
       </c>
@@ -11800,7 +11861,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>506</v>
       </c>
@@ -11829,7 +11890,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>1102</v>
       </c>
@@ -11855,7 +11916,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>1030</v>
       </c>
@@ -11874,8 +11935,11 @@
       <c r="I164" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>516</v>
       </c>
@@ -11901,7 +11965,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>519</v>
       </c>
@@ -11930,7 +11994,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>522</v>
       </c>
@@ -11950,7 +12014,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>524</v>
       </c>
@@ -11976,7 +12040,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>526</v>
       </c>
@@ -12005,7 +12069,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>529</v>
       </c>
@@ -12034,7 +12098,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>532</v>
       </c>
@@ -12063,7 +12127,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>534</v>
       </c>
@@ -12092,7 +12156,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>537</v>
       </c>
@@ -12118,7 +12182,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>540</v>
       </c>
@@ -12138,7 +12202,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>542</v>
       </c>
@@ -12164,7 +12228,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>545</v>
       </c>
@@ -12193,7 +12257,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>548</v>
       </c>
@@ -12222,7 +12286,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>551</v>
       </c>
@@ -12248,7 +12312,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>554</v>
       </c>
@@ -12274,7 +12338,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>557</v>
       </c>
@@ -12303,7 +12367,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>560</v>
       </c>
@@ -12332,7 +12396,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>565</v>
       </c>
@@ -12358,7 +12422,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>568</v>
       </c>
@@ -12378,7 +12442,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>570</v>
       </c>
@@ -12407,7 +12471,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>572</v>
       </c>
@@ -12436,7 +12500,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>575</v>
       </c>
@@ -12465,7 +12529,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>578</v>
       </c>
@@ -12491,7 +12555,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>581</v>
       </c>
@@ -12517,7 +12581,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>584</v>
       </c>
@@ -12543,7 +12607,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>587</v>
       </c>
@@ -12569,7 +12633,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>589</v>
       </c>
@@ -12595,7 +12659,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>592</v>
       </c>
@@ -12615,7 +12679,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>594</v>
       </c>
@@ -12644,7 +12708,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>597</v>
       </c>
@@ -12670,7 +12734,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>599</v>
       </c>
@@ -12696,7 +12760,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>601</v>
       </c>
@@ -12722,7 +12786,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>604</v>
       </c>
@@ -12751,7 +12815,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>608</v>
       </c>
@@ -12777,7 +12841,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>609</v>
       </c>
@@ -12806,7 +12870,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>612</v>
       </c>
@@ -12832,7 +12896,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>614</v>
       </c>
@@ -12858,7 +12922,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>616</v>
       </c>
@@ -12887,7 +12951,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>619</v>
       </c>
@@ -12913,7 +12977,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>622</v>
       </c>
@@ -12942,7 +13006,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>625</v>
       </c>
@@ -12971,7 +13035,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>628</v>
       </c>
@@ -12997,7 +13061,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>630</v>
       </c>
@@ -13026,7 +13090,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>633</v>
       </c>
@@ -13052,7 +13116,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>1153</v>
       </c>
@@ -13071,8 +13135,11 @@
       <c r="I209" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>638</v>
       </c>
@@ -13101,7 +13168,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>641</v>
       </c>
@@ -13130,7 +13197,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>644</v>
       </c>
@@ -13156,7 +13223,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>647</v>
       </c>
@@ -13176,7 +13243,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>649</v>
       </c>
@@ -13202,7 +13269,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>651</v>
       </c>
@@ -13228,7 +13295,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>654</v>
       </c>
@@ -13248,7 +13315,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>656</v>
       </c>
@@ -13277,7 +13344,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>659</v>
       </c>
@@ -13297,7 +13364,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>661</v>
       </c>
@@ -13326,7 +13393,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>665</v>
       </c>
@@ -13346,7 +13413,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>667</v>
       </c>
@@ -13372,7 +13439,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>670</v>
       </c>
@@ -13401,7 +13468,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>673</v>
       </c>
@@ -13430,7 +13497,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>676</v>
       </c>
@@ -13459,7 +13526,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>680</v>
       </c>
@@ -13488,7 +13555,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>683</v>
       </c>
@@ -13508,7 +13575,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>685</v>
       </c>
@@ -13537,7 +13604,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>689</v>
       </c>
@@ -13566,7 +13633,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>692</v>
       </c>
@@ -13586,7 +13653,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>694</v>
       </c>
@@ -13606,7 +13673,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>696</v>
       </c>
@@ -13626,7 +13693,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>698</v>
       </c>
@@ -13646,7 +13713,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>700</v>
       </c>
@@ -13665,8 +13732,11 @@
       <c r="I233" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>702</v>
       </c>
@@ -13692,7 +13762,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>705</v>
       </c>
@@ -13721,7 +13791,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>708</v>
       </c>
@@ -13750,7 +13820,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>712</v>
       </c>
@@ -13776,7 +13846,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>714</v>
       </c>
@@ -13802,7 +13872,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>1187</v>
       </c>
@@ -13821,8 +13891,11 @@
       <c r="I239" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>718</v>
       </c>
@@ -13851,7 +13924,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>721</v>
       </c>
@@ -13871,7 +13944,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>723</v>
       </c>
@@ -13900,7 +13973,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>727</v>
       </c>
@@ -13929,7 +14002,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>1465</v>
       </c>
@@ -13948,8 +14021,11 @@
       <c r="I244" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>732</v>
       </c>
@@ -13975,7 +14051,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>735</v>
       </c>
@@ -13995,7 +14071,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>737</v>
       </c>
@@ -14021,7 +14097,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>739</v>
       </c>
@@ -14050,7 +14126,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>742</v>
       </c>
@@ -14070,7 +14146,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>744</v>
       </c>
@@ -14099,7 +14175,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>747</v>
       </c>
@@ -14128,7 +14204,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>750</v>
       </c>
@@ -14157,7 +14233,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>754</v>
       </c>
@@ -14186,7 +14262,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>758</v>
       </c>
@@ -14215,7 +14291,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>762</v>
       </c>
@@ -14241,7 +14317,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>765</v>
       </c>
@@ -14267,7 +14343,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>767</v>
       </c>
@@ -14296,7 +14372,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>770</v>
       </c>
@@ -14325,7 +14401,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>774</v>
       </c>
@@ -14351,7 +14427,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>776</v>
       </c>
@@ -14380,7 +14456,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>779</v>
       </c>
@@ -14409,7 +14485,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>782</v>
       </c>
@@ -14435,7 +14511,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>784</v>
       </c>
@@ -14455,7 +14531,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>786</v>
       </c>
@@ -14481,7 +14557,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>789</v>
       </c>
@@ -14507,7 +14583,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>792</v>
       </c>
@@ -14533,7 +14609,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>795</v>
       </c>
@@ -14559,7 +14635,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>797</v>
       </c>
@@ -14585,7 +14661,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>800</v>
       </c>
@@ -14611,7 +14687,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>802</v>
       </c>
@@ -14640,7 +14716,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>805</v>
       </c>
@@ -14669,7 +14745,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>809</v>
       </c>
@@ -14698,7 +14774,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>813</v>
       </c>
@@ -14727,7 +14803,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>2154</v>
       </c>
@@ -14746,8 +14822,11 @@
       <c r="I274" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L274">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>819</v>
       </c>
@@ -14773,7 +14852,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>821</v>
       </c>
@@ -14793,7 +14872,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>823</v>
       </c>
@@ -14813,7 +14892,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>1575</v>
       </c>
@@ -14832,8 +14911,11 @@
       <c r="I278" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>827</v>
       </c>
@@ -14862,7 +14944,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>830</v>
       </c>
@@ -14888,7 +14970,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>832</v>
       </c>
@@ -14917,7 +14999,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>835</v>
       </c>
@@ -14937,7 +15019,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>1817</v>
       </c>
@@ -14956,8 +15038,11 @@
       <c r="I283" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>839</v>
       </c>
@@ -14986,7 +15071,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>842</v>
       </c>
@@ -15015,7 +15100,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>161</v>
       </c>
@@ -15034,8 +15119,11 @@
       <c r="I286" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>847</v>
       </c>
@@ -15064,7 +15152,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>850</v>
       </c>
@@ -15093,7 +15181,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>855</v>
       </c>
@@ -15122,7 +15210,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>858</v>
       </c>
@@ -15148,7 +15236,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>1595</v>
       </c>
@@ -15167,8 +15255,11 @@
       <c r="I291" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L291">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>863</v>
       </c>
@@ -15194,7 +15285,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>1311</v>
       </c>
@@ -15220,7 +15311,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>867</v>
       </c>
@@ -15240,7 +15331,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>869</v>
       </c>
@@ -15269,7 +15360,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>872</v>
       </c>
@@ -15289,7 +15380,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>874</v>
       </c>
@@ -15318,7 +15409,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>877</v>
       </c>
@@ -15347,7 +15438,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>880</v>
       </c>
@@ -15367,7 +15458,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>882</v>
       </c>
@@ -15387,7 +15478,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>884</v>
       </c>
@@ -15413,7 +15504,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>887</v>
       </c>
@@ -15442,7 +15533,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>890</v>
       </c>
@@ -15471,7 +15562,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>893</v>
       </c>
@@ -15491,7 +15582,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>895</v>
       </c>
@@ -15517,7 +15608,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>898</v>
       </c>
@@ -15537,7 +15628,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>900</v>
       </c>
@@ -15557,7 +15648,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>902</v>
       </c>
@@ -15577,7 +15668,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>427</v>
       </c>
@@ -15596,8 +15687,11 @@
       <c r="I309" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>906</v>
       </c>
@@ -15623,7 +15717,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>909</v>
       </c>
@@ -15643,7 +15737,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>911</v>
       </c>
@@ -15669,7 +15763,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>914</v>
       </c>
@@ -15698,7 +15792,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>917</v>
       </c>
@@ -15718,7 +15812,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>919</v>
       </c>
@@ -15738,7 +15832,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>921</v>
       </c>
@@ -15758,7 +15852,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>923</v>
       </c>
@@ -15778,7 +15872,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>925</v>
       </c>
@@ -15804,7 +15898,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>928</v>
       </c>
@@ -15824,7 +15918,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>930</v>
       </c>
@@ -15850,7 +15944,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>197</v>
       </c>
@@ -15869,8 +15963,11 @@
       <c r="I321" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>934</v>
       </c>
@@ -15890,7 +15987,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>936</v>
       </c>
@@ -15916,7 +16013,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>938</v>
       </c>
@@ -15942,7 +16039,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>941</v>
       </c>
@@ -15962,7 +16059,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>943</v>
       </c>
@@ -15988,7 +16085,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>946</v>
       </c>
@@ -16014,7 +16111,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>948</v>
       </c>
@@ -16043,7 +16140,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>951</v>
       </c>
@@ -16069,7 +16166,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>954</v>
       </c>
@@ -16098,7 +16195,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>957</v>
       </c>
@@ -16127,7 +16224,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>961</v>
       </c>
@@ -16156,7 +16253,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>964</v>
       </c>
@@ -16185,7 +16282,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>967</v>
       </c>
@@ -16211,7 +16308,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>969</v>
       </c>
@@ -16240,7 +16337,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>972</v>
       </c>
@@ -16260,7 +16357,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>975</v>
       </c>
@@ -16286,7 +16383,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>977</v>
       </c>
@@ -16312,7 +16409,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>979</v>
       </c>
@@ -16338,7 +16435,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>982</v>
       </c>
@@ -16367,7 +16464,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>985</v>
       </c>
@@ -16396,7 +16493,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>989</v>
       </c>
@@ -16425,7 +16522,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>992</v>
       </c>
@@ -16451,7 +16548,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>994</v>
       </c>
@@ -16477,7 +16574,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>996</v>
       </c>
@@ -16506,7 +16603,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>999</v>
       </c>
@@ -16526,7 +16623,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>1001</v>
       </c>
@@ -16555,7 +16652,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>1004</v>
       </c>
@@ -16581,7 +16678,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>1591</v>
       </c>
@@ -16600,8 +16697,11 @@
       <c r="I349" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>1905</v>
       </c>
@@ -16620,8 +16720,11 @@
       <c r="I350" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L350">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>1009</v>
       </c>
@@ -16647,7 +16750,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>1011</v>
       </c>
@@ -16673,7 +16776,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>1014</v>
       </c>
@@ -16702,7 +16805,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>1017</v>
       </c>
@@ -16722,7 +16825,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>1019</v>
       </c>
@@ -16742,7 +16845,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>1829</v>
       </c>
@@ -16768,7 +16871,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>1023</v>
       </c>
@@ -16788,7 +16891,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>1025</v>
       </c>
@@ -16817,7 +16920,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>1028</v>
       </c>
@@ -16837,7 +16940,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>311</v>
       </c>
@@ -16856,8 +16959,11 @@
       <c r="I360" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>1032</v>
       </c>
@@ -16886,7 +16992,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>1034</v>
       </c>
@@ -16912,7 +17018,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>1036</v>
       </c>
@@ -16938,7 +17044,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>1039</v>
       </c>
@@ -16958,7 +17064,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>1041</v>
       </c>
@@ -16987,7 +17093,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>1044</v>
       </c>
@@ -17007,7 +17113,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>1046</v>
       </c>
@@ -17027,7 +17133,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>1048</v>
       </c>
@@ -17047,7 +17153,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>1050</v>
       </c>
@@ -17067,7 +17173,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>1052</v>
       </c>
@@ -17087,7 +17193,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>2075</v>
       </c>
@@ -17106,8 +17212,11 @@
       <c r="I371" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L371">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>1056</v>
       </c>
@@ -17136,7 +17245,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>1059</v>
       </c>
@@ -17165,7 +17274,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>134</v>
       </c>
@@ -17184,8 +17293,11 @@
       <c r="I374" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>1007</v>
       </c>
@@ -17204,8 +17316,11 @@
       <c r="I375" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L375">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>1067</v>
       </c>
@@ -17231,7 +17346,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>1070</v>
       </c>
@@ -17251,7 +17366,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>1072</v>
       </c>
@@ -17277,7 +17392,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>1075</v>
       </c>
@@ -17303,7 +17418,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>1078</v>
       </c>
@@ -17323,7 +17438,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>408</v>
       </c>
@@ -17349,7 +17464,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>1083</v>
       </c>
@@ -17369,7 +17484,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>1085</v>
       </c>
@@ -17395,7 +17510,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>1088</v>
       </c>
@@ -17421,7 +17536,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>1090</v>
       </c>
@@ -17441,7 +17556,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="386" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>1092</v>
       </c>
@@ -17467,7 +17582,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="387" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>1094</v>
       </c>
@@ -17493,7 +17608,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="388" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>1097</v>
       </c>
@@ -17519,7 +17634,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>96</v>
       </c>
@@ -17538,8 +17653,11 @@
       <c r="I389" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>865</v>
       </c>
@@ -17559,7 +17677,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="391" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>1104</v>
       </c>
@@ -17588,7 +17706,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="392" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>1106</v>
       </c>
@@ -17617,7 +17735,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>2071</v>
       </c>
@@ -17636,8 +17754,11 @@
       <c r="I393" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L393">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>1111</v>
       </c>
@@ -17666,7 +17787,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>1802</v>
       </c>
@@ -17685,8 +17806,11 @@
       <c r="I395" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>1117</v>
       </c>
@@ -17706,7 +17830,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="397" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>1119</v>
       </c>
@@ -17735,7 +17859,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>1123</v>
       </c>
@@ -17761,7 +17885,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>1125</v>
       </c>
@@ -17787,7 +17911,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>139</v>
       </c>
@@ -17806,8 +17930,11 @@
       <c r="I400" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>1129</v>
       </c>
@@ -17833,7 +17960,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>1131</v>
       </c>
@@ -17853,7 +17980,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>1109</v>
       </c>
@@ -17872,8 +17999,11 @@
       <c r="I403" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="404" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L403">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>1135</v>
       </c>
@@ -17902,7 +18032,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>1139</v>
       </c>
@@ -17928,7 +18058,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="406" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>1142</v>
       </c>
@@ -17957,7 +18087,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="407" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>1145</v>
       </c>
@@ -17986,7 +18116,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="408" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>1148</v>
       </c>
@@ -18015,7 +18145,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="409" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>1150</v>
       </c>
@@ -18041,7 +18171,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>1977</v>
       </c>
@@ -18060,8 +18190,11 @@
       <c r="I410" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>1155</v>
       </c>
@@ -18090,7 +18223,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>1158</v>
       </c>
@@ -18116,7 +18249,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="413" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>1160</v>
       </c>
@@ -18145,7 +18278,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>1163</v>
       </c>
@@ -18174,7 +18307,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="415" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>1165</v>
       </c>
@@ -18203,7 +18336,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>1168</v>
       </c>
@@ -18232,7 +18365,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>1171</v>
       </c>
@@ -18252,7 +18385,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="418" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>1173</v>
       </c>
@@ -18278,7 +18411,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="419" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>1175</v>
       </c>
@@ -18304,7 +18437,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>1478</v>
       </c>
@@ -18324,7 +18457,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="421" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>167</v>
       </c>
@@ -18350,7 +18483,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="422" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>1182</v>
       </c>
@@ -18379,7 +18512,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>2077</v>
       </c>
@@ -18398,8 +18531,11 @@
       <c r="I423" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L423">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>1653</v>
       </c>
@@ -18418,8 +18554,11 @@
       <c r="I424" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>1189</v>
       </c>
@@ -18439,7 +18578,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="426" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>1191</v>
       </c>
@@ -18468,7 +18607,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="427" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>1193</v>
       </c>
@@ -18494,7 +18633,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="428" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>301</v>
       </c>
@@ -18520,7 +18659,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>1197</v>
       </c>
@@ -18540,7 +18679,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="430" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>1199</v>
       </c>
@@ -18569,7 +18708,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="431" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>1202</v>
       </c>
@@ -18598,7 +18737,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="432" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>1206</v>
       </c>
@@ -18624,7 +18763,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="433" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>1209</v>
       </c>
@@ -18653,7 +18792,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>1211</v>
       </c>
@@ -18673,7 +18812,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="435" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>1213</v>
       </c>
@@ -18699,7 +18838,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="436" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>1215</v>
       </c>
@@ -18728,7 +18867,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="437" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>1217</v>
       </c>
@@ -18754,7 +18893,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="438" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>1220</v>
       </c>
@@ -18780,7 +18919,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>1943</v>
       </c>
@@ -18799,8 +18938,11 @@
       <c r="I439" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="440" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L439">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>1225</v>
       </c>
@@ -18829,7 +18971,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="441" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>1228</v>
       </c>
@@ -18858,7 +19000,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="442" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>1230</v>
       </c>
@@ -18887,7 +19029,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="443" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>1233</v>
       </c>
@@ -18913,7 +19055,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>1236</v>
       </c>
@@ -18933,7 +19075,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>1238</v>
       </c>
@@ -18953,7 +19095,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="446" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>1240</v>
       </c>
@@ -18979,7 +19121,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="447" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>1242</v>
       </c>
@@ -19005,7 +19147,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>1244</v>
       </c>
@@ -19025,7 +19167,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="449" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>1246</v>
       </c>
@@ -19051,7 +19193,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="450" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>1248</v>
       </c>
@@ -19077,7 +19219,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>1250</v>
       </c>
@@ -19097,7 +19239,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="452" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>1252</v>
       </c>
@@ -19123,7 +19265,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="453" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>1254</v>
       </c>
@@ -19149,7 +19291,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>1257</v>
       </c>
@@ -19169,7 +19311,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>1259</v>
       </c>
@@ -19189,7 +19331,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="456" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>1261</v>
       </c>
@@ -19215,7 +19357,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="457" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>1264</v>
       </c>
@@ -19244,7 +19386,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>1267</v>
       </c>
@@ -19264,7 +19406,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>1269</v>
       </c>
@@ -19284,7 +19426,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="460" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>1271</v>
       </c>
@@ -19313,7 +19455,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="461" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>1275</v>
       </c>
@@ -19342,7 +19484,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="462" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>1277</v>
       </c>
@@ -19368,7 +19510,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="463" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>1280</v>
       </c>
@@ -19394,7 +19536,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="464" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>1282</v>
       </c>
@@ -19423,7 +19565,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="465" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>1285</v>
       </c>
@@ -19452,7 +19594,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="466" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>1288</v>
       </c>
@@ -19481,7 +19623,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="467" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>1746</v>
       </c>
@@ -19507,7 +19649,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="468" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>1294</v>
       </c>
@@ -19536,7 +19678,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>1297</v>
       </c>
@@ -19556,7 +19698,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="470" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>1299</v>
       </c>
@@ -19582,7 +19724,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>1301</v>
       </c>
@@ -19602,7 +19744,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="472" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>1303</v>
       </c>
@@ -19628,7 +19770,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="473" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>1306</v>
       </c>
@@ -19657,7 +19799,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="474" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>1309</v>
       </c>
@@ -19686,7 +19828,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>1811</v>
       </c>
@@ -19706,7 +19848,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="476" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>1313</v>
       </c>
@@ -19735,7 +19877,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="477" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>1316</v>
       </c>
@@ -19761,7 +19903,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="478" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>1318</v>
       </c>
@@ -19787,7 +19929,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="479" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>1321</v>
       </c>
@@ -19816,7 +19958,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="480" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>1324</v>
       </c>
@@ -19842,7 +19984,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="481" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>1327</v>
       </c>
@@ -19871,7 +20013,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="482" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>1329</v>
       </c>
@@ -19900,7 +20042,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="483" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>1331</v>
       </c>
@@ -19929,7 +20071,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="484" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>1333</v>
       </c>
@@ -19955,7 +20097,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="485" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>1336</v>
       </c>
@@ -19984,7 +20126,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="486" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>1339</v>
       </c>
@@ -20013,7 +20155,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="487" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>1342</v>
       </c>
@@ -20039,7 +20181,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="488" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>1344</v>
       </c>
@@ -20065,7 +20207,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>1346</v>
       </c>
@@ -20085,7 +20227,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="490" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>1348</v>
       </c>
@@ -20111,7 +20253,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="491" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>1350</v>
       </c>
@@ -20137,7 +20279,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="492" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>1352</v>
       </c>
@@ -20163,7 +20305,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>1354</v>
       </c>
@@ -20183,7 +20325,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="494" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>1356</v>
       </c>
@@ -20212,7 +20354,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="495" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>1359</v>
       </c>
@@ -20238,7 +20380,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>1362</v>
       </c>
@@ -20258,7 +20400,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>1364</v>
       </c>
@@ -20278,7 +20420,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>1366</v>
       </c>
@@ -20298,7 +20440,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>1368</v>
       </c>
@@ -20318,7 +20460,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="500" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>1370</v>
       </c>
@@ -20344,7 +20486,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>1372</v>
       </c>
@@ -20364,7 +20506,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>1374</v>
       </c>
@@ -20384,7 +20526,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="503" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>1376</v>
       </c>
@@ -20413,7 +20555,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>1379</v>
       </c>
@@ -20433,7 +20575,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>514</v>
       </c>
@@ -20452,8 +20594,11 @@
       <c r="I505" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="506" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L505">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>1383</v>
       </c>
@@ -20479,7 +20624,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>1386</v>
       </c>
@@ -20499,7 +20644,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="508" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>1388</v>
       </c>
@@ -20525,7 +20670,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="509" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>1390</v>
       </c>
@@ -20554,7 +20699,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>1392</v>
       </c>
@@ -20574,7 +20719,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>146</v>
       </c>
@@ -20593,8 +20738,11 @@
       <c r="I511" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="512" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L511">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>1395</v>
       </c>
@@ -20623,7 +20771,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="513" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>1398</v>
       </c>
@@ -20649,7 +20797,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>1401</v>
       </c>
@@ -20669,7 +20817,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>1403</v>
       </c>
@@ -20689,7 +20837,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="516" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>1405</v>
       </c>
@@ -20715,7 +20863,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>1407</v>
       </c>
@@ -20735,7 +20883,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="518" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>1409</v>
       </c>
@@ -20764,7 +20912,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="519" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>1412</v>
       </c>
@@ -20793,7 +20941,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>1416</v>
       </c>
@@ -20813,7 +20961,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="521" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>1418</v>
       </c>
@@ -20839,7 +20987,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="522" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>1420</v>
       </c>
@@ -20868,7 +21016,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="523" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>1422</v>
       </c>
@@ -20894,7 +21042,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="524" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>1424</v>
       </c>
@@ -20920,7 +21068,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="525" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>1427</v>
       </c>
@@ -20946,7 +21094,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>1429</v>
       </c>
@@ -20966,7 +21114,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="527" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>1431</v>
       </c>
@@ -20992,7 +21140,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="528" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>1433</v>
       </c>
@@ -21018,7 +21166,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="529" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>1435</v>
       </c>
@@ -21047,7 +21195,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>1438</v>
       </c>
@@ -21067,7 +21215,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>2038</v>
       </c>
@@ -21086,8 +21234,11 @@
       <c r="I531" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="532" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L531">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="532" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>1442</v>
       </c>
@@ -21116,7 +21267,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="533" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>1446</v>
       </c>
@@ -21145,7 +21296,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="534" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>1449</v>
       </c>
@@ -21174,7 +21325,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="535" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>1452</v>
       </c>
@@ -21203,7 +21354,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="536" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>1455</v>
       </c>
@@ -21232,7 +21383,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>1458</v>
       </c>
@@ -21252,7 +21403,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>1460</v>
       </c>
@@ -21272,7 +21423,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="539" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>1462</v>
       </c>
@@ -21298,7 +21449,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>152</v>
       </c>
@@ -21317,8 +21468,11 @@
       <c r="I540" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="541" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L540">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>1467</v>
       </c>
@@ -21347,7 +21501,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="542" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>1470</v>
       </c>
@@ -21373,7 +21527,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>1472</v>
       </c>
@@ -21393,7 +21547,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="544" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>1474</v>
       </c>
@@ -21422,7 +21576,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>356</v>
       </c>
@@ -21442,7 +21596,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="546" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>1480</v>
       </c>
@@ -21471,7 +21625,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="547" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>1482</v>
       </c>
@@ -21500,7 +21654,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="548" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>1484</v>
       </c>
@@ -21529,7 +21683,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>1487</v>
       </c>
@@ -21549,7 +21703,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>1133</v>
       </c>
@@ -21568,8 +21722,11 @@
       <c r="I550" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="551" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L550">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="551" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>1491</v>
       </c>
@@ -21598,7 +21755,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="552" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>281</v>
       </c>
@@ -21624,7 +21781,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="553" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>1496</v>
       </c>
@@ -21653,7 +21810,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="554" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>156</v>
       </c>
@@ -21679,7 +21836,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
         <v>2084</v>
       </c>
@@ -21698,8 +21855,11 @@
       <c r="I555" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="556" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L555">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
         <v>1505</v>
       </c>
@@ -21725,7 +21885,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="557" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>1507</v>
       </c>
@@ -21754,7 +21914,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="558" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
         <v>1510</v>
       </c>
@@ -21780,7 +21940,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="559" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
         <v>1512</v>
       </c>
@@ -21809,7 +21969,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>1516</v>
       </c>
@@ -21829,7 +21989,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="561" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
         <v>1518</v>
       </c>
@@ -21855,7 +22015,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="562" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
         <v>1520</v>
       </c>
@@ -21881,7 +22041,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
         <v>1523</v>
       </c>
@@ -21901,7 +22061,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="564" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
         <v>1525</v>
       </c>
@@ -21930,7 +22090,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="565" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
         <v>1527</v>
       </c>
@@ -21959,7 +22119,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="566" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
         <v>1530</v>
       </c>
@@ -21988,7 +22148,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="567" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
         <v>1177</v>
       </c>
@@ -22014,7 +22174,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="568" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
         <v>1535</v>
       </c>
@@ -22043,7 +22203,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="569" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
         <v>1538</v>
       </c>
@@ -22069,7 +22229,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="570" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
         <v>1540</v>
       </c>
@@ -22095,7 +22255,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="571" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
         <v>1542</v>
       </c>
@@ -22121,7 +22281,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
         <v>1545</v>
       </c>
@@ -22141,7 +22301,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="573" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
         <v>1547</v>
       </c>
@@ -22170,7 +22330,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
         <v>1550</v>
       </c>
@@ -22190,7 +22350,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
         <v>1552</v>
       </c>
@@ -22210,7 +22370,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
         <v>1554</v>
       </c>
@@ -22230,7 +22390,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
         <v>1556</v>
       </c>
@@ -22250,7 +22410,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="578" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
         <v>1558</v>
       </c>
@@ -22279,7 +22439,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="579" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
         <v>1561</v>
       </c>
@@ -22308,7 +22468,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="580" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
         <v>1564</v>
       </c>
@@ -22337,7 +22497,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
         <v>1533</v>
       </c>
@@ -22356,8 +22516,11 @@
       <c r="I581" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L581">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="582" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
         <v>1568</v>
       </c>
@@ -22377,7 +22540,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="583" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="583" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
         <v>1570</v>
       </c>
@@ -22403,7 +22566,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="584" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="584" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
         <v>1572</v>
       </c>
@@ -22429,7 +22592,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
         <v>98</v>
       </c>
@@ -22448,8 +22611,11 @@
       <c r="I585" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L585">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
         <v>2120</v>
       </c>
@@ -22468,8 +22634,11 @@
       <c r="I586" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="587" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L586">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="587" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
         <v>1579</v>
       </c>
@@ -22498,7 +22667,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="588" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="588" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
         <v>1582</v>
       </c>
@@ -22524,7 +22693,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="589" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
         <v>1584</v>
       </c>
@@ -22544,7 +22713,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="590" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
         <v>1586</v>
       </c>
@@ -22570,7 +22739,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="591" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
         <v>110</v>
       </c>
@@ -22589,8 +22758,11 @@
       <c r="I591" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L591">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
         <v>861</v>
       </c>
@@ -22609,8 +22781,11 @@
       <c r="I592" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="593" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L592">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="593" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
         <v>1593</v>
       </c>
@@ -22636,7 +22811,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="594" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
         <v>403</v>
       </c>
@@ -22655,8 +22830,11 @@
       <c r="I594" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L594">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
         <v>1597</v>
       </c>
@@ -22676,7 +22854,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="596" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="596" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
         <v>1599</v>
       </c>
@@ -22705,7 +22883,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="597" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
         <v>1602</v>
       </c>
@@ -22725,7 +22903,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="598" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="598" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
         <v>1604</v>
       </c>
@@ -22754,7 +22932,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="599" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="599" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
         <v>1606</v>
       </c>
@@ -22780,7 +22958,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="600" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="600" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
         <v>1608</v>
       </c>
@@ -22809,7 +22987,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="601" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="601" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
         <v>1610</v>
       </c>
@@ -22835,7 +23013,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="602" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="602" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
         <v>1613</v>
       </c>
@@ -22864,7 +23042,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="603" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
         <v>1616</v>
       </c>
@@ -22884,7 +23062,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="604" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="604" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A604" t="s">
         <v>1618</v>
       </c>
@@ -22910,7 +23088,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="605" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
         <v>1621</v>
       </c>
@@ -22930,7 +23108,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="606" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="606" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
         <v>1623</v>
       </c>
@@ -22959,7 +23137,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="607" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
         <v>1626</v>
       </c>
@@ -22979,7 +23157,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="608" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
         <v>1628</v>
       </c>
@@ -22999,7 +23177,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="609" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="609" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A609" t="s">
         <v>1630</v>
       </c>
@@ -23028,7 +23206,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="610" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="610" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A610" t="s">
         <v>1633</v>
       </c>
@@ -23057,7 +23235,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="611" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A611" t="s">
         <v>1635</v>
       </c>
@@ -23077,7 +23255,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="612" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
         <v>1638</v>
       </c>
@@ -23097,7 +23275,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="613" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="613" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
         <v>1640</v>
       </c>
@@ -23123,7 +23301,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="614" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
         <v>1642</v>
       </c>
@@ -23143,7 +23321,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="615" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
         <v>1644</v>
       </c>
@@ -23163,7 +23341,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="616" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
         <v>1646</v>
       </c>
@@ -23183,7 +23361,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="617" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="617" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
         <v>1648</v>
       </c>
@@ -23209,7 +23387,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="618" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
         <v>1819</v>
       </c>
@@ -23228,8 +23406,11 @@
       <c r="I618" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L618">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="619" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
         <v>1651</v>
       </c>
@@ -23249,7 +23430,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="620" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
         <v>817</v>
       </c>
@@ -23268,8 +23449,11 @@
       <c r="I620" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="621" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L620">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A621" t="s">
         <v>1655</v>
       </c>
@@ -23295,7 +23479,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="622" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A622" t="s">
         <v>1726</v>
       </c>
@@ -23314,8 +23498,11 @@
       <c r="I622" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="623" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L622">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A623" t="s">
         <v>1659</v>
       </c>
@@ -23344,7 +23531,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="624" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="624" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A624" t="s">
         <v>1662</v>
       </c>
@@ -23373,7 +23560,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="625" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="625" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
         <v>1666</v>
       </c>
@@ -23399,7 +23586,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="626" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="626" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A626" t="s">
         <v>1668</v>
       </c>
@@ -23428,7 +23615,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="627" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="627" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A627" t="s">
         <v>1671</v>
       </c>
@@ -23454,7 +23641,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="628" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="628" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
         <v>1673</v>
       </c>
@@ -23483,7 +23670,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="629" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
         <v>1676</v>
       </c>
@@ -23503,7 +23690,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="630" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A630" t="s">
         <v>2132</v>
       </c>
@@ -23522,8 +23709,11 @@
       <c r="I630" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="631" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L630">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="631" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A631" t="s">
         <v>1680</v>
       </c>
@@ -23549,7 +23739,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="632" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A632" t="s">
         <v>1682</v>
       </c>
@@ -23569,7 +23759,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="633" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="633" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A633" t="s">
         <v>1684</v>
       </c>
@@ -23598,7 +23788,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="634" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A634" t="s">
         <v>1687</v>
       </c>
@@ -23618,7 +23808,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="635" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A635" t="s">
         <v>1689</v>
       </c>
@@ -23638,7 +23828,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="636" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="636" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A636" t="s">
         <v>1691</v>
       </c>
@@ -23667,7 +23857,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="637" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A637" t="s">
         <v>1694</v>
       </c>
@@ -23687,7 +23877,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="638" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="638" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
         <v>1695</v>
       </c>
@@ -23713,7 +23903,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="639" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="639" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A639" t="s">
         <v>1698</v>
       </c>
@@ -23739,7 +23929,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="640" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="640" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A640" t="s">
         <v>1701</v>
       </c>
@@ -23768,7 +23958,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="641" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="641" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A641" t="s">
         <v>1703</v>
       </c>
@@ -23797,7 +23987,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="642" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="642" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A642" t="s">
         <v>1706</v>
       </c>
@@ -23823,7 +24013,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="643" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A643" t="s">
         <v>1709</v>
       </c>
@@ -23843,7 +24033,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="644" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="644" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A644" t="s">
         <v>1711</v>
       </c>
@@ -23872,7 +24062,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="645" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A645" t="s">
         <v>1713</v>
       </c>
@@ -23892,7 +24082,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="646" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="646" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A646" t="s">
         <v>1715</v>
       </c>
@@ -23921,7 +24111,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="647" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="647" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A647" t="s">
         <v>1718</v>
       </c>
@@ -23950,7 +24140,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="648" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A648" t="s">
         <v>1721</v>
       </c>
@@ -23970,7 +24160,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="649" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="649" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A649" t="s">
         <v>1723</v>
       </c>
@@ -23996,7 +24186,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="650" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A650" t="s">
         <v>1381</v>
       </c>
@@ -24015,8 +24205,11 @@
       <c r="I650" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="651" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L650">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A651" t="s">
         <v>1728</v>
       </c>
@@ -24045,7 +24238,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="652" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="652" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A652" t="s">
         <v>1731</v>
       </c>
@@ -24071,7 +24264,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="653" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="653" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A653" t="s">
         <v>1734</v>
       </c>
@@ -24100,7 +24293,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="654" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="654" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A654" t="s">
         <v>1737</v>
       </c>
@@ -24129,7 +24322,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="655" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A655" t="s">
         <v>1740</v>
       </c>
@@ -24149,7 +24342,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="656" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A656" t="s">
         <v>1742</v>
       </c>
@@ -24169,7 +24362,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="657" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A657" t="s">
         <v>1744</v>
       </c>
@@ -24189,7 +24382,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="658" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A658" t="s">
         <v>1021</v>
       </c>
@@ -24209,7 +24402,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="659" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="659" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A659" t="s">
         <v>1748</v>
       </c>
@@ -24235,7 +24428,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="660" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="660" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A660" t="s">
         <v>1750</v>
       </c>
@@ -24261,7 +24454,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="661" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A661" t="s">
         <v>1752</v>
       </c>
@@ -24281,7 +24474,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="662" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="662" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A662" t="s">
         <v>1754</v>
       </c>
@@ -24310,7 +24503,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="663" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="663" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A663" t="s">
         <v>1757</v>
       </c>
@@ -24339,7 +24532,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="664" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="664" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A664" t="s">
         <v>1759</v>
       </c>
@@ -24365,7 +24558,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="665" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="665" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A665" t="s">
         <v>1761</v>
       </c>
@@ -24394,7 +24587,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="666" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A666" t="s">
         <v>1503</v>
       </c>
@@ -24413,8 +24606,11 @@
       <c r="I666" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="667" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L666">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="667" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A667" t="s">
         <v>1765</v>
       </c>
@@ -24440,7 +24636,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="668" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="668" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A668" t="s">
         <v>1767</v>
       </c>
@@ -24469,7 +24665,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="669" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="669" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A669" t="s">
         <v>1770</v>
       </c>
@@ -24498,7 +24694,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="670" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="670" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A670" t="s">
         <v>1774</v>
       </c>
@@ -24527,7 +24723,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="671" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="671" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A671" t="s">
         <v>1777</v>
       </c>
@@ -24553,7 +24749,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="672" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="672" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A672" t="s">
         <v>1779</v>
       </c>
@@ -24582,7 +24778,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="673" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A673" t="s">
         <v>1782</v>
       </c>
@@ -24602,7 +24798,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="674" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A674" t="s">
         <v>1440</v>
       </c>
@@ -24621,8 +24817,11 @@
       <c r="I674" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="675" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L674">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A675" t="s">
         <v>1786</v>
       </c>
@@ -24648,7 +24847,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="676" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="676" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A676" t="s">
         <v>1788</v>
       </c>
@@ -24674,7 +24873,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="677" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="677" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A677" t="s">
         <v>1790</v>
       </c>
@@ -24703,7 +24902,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="678" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="678" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A678" t="s">
         <v>1793</v>
       </c>
@@ -24732,7 +24931,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="679" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="679" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A679" t="s">
         <v>1797</v>
       </c>
@@ -24758,7 +24957,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="680" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A680" t="s">
         <v>1494</v>
       </c>
@@ -24778,7 +24977,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="681" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A681" t="s">
         <v>1489</v>
       </c>
@@ -24797,8 +24996,11 @@
       <c r="I681" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="682" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L681">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="682" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A682" t="s">
         <v>1804</v>
       </c>
@@ -24827,7 +25029,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="683" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="683" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A683" t="s">
         <v>1807</v>
       </c>
@@ -24853,7 +25055,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="684" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="684" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A684" t="s">
         <v>1809</v>
       </c>
@@ -24879,7 +25081,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="685" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A685" t="s">
         <v>64</v>
       </c>
@@ -24899,7 +25101,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="686" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A686" t="s">
         <v>1813</v>
       </c>
@@ -24919,7 +25121,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="687" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="687" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A687" t="s">
         <v>1815</v>
       </c>
@@ -24945,7 +25147,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="688" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A688" t="s">
         <v>1127</v>
       </c>
@@ -24964,8 +25166,11 @@
       <c r="I688" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L688">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A689" t="s">
         <v>1896</v>
       </c>
@@ -24984,8 +25189,11 @@
       <c r="I689" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="690" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L689">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="690" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A690" t="s">
         <v>1821</v>
       </c>
@@ -25011,7 +25219,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="691" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="691" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A691" t="s">
         <v>1823</v>
       </c>
@@ -25040,7 +25248,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="692" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="692" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A692" t="s">
         <v>1826</v>
       </c>
@@ -25069,7 +25277,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="693" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="693" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A693" t="s">
         <v>2101</v>
       </c>
@@ -25095,7 +25303,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="694" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A694" t="s">
         <v>1831</v>
       </c>
@@ -25115,7 +25323,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="695" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="695" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A695" t="s">
         <v>1833</v>
       </c>
@@ -25144,7 +25352,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="696" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="696" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A696" t="s">
         <v>1836</v>
       </c>
@@ -25173,7 +25381,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="697" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="697" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A697" t="s">
         <v>1839</v>
       </c>
@@ -25199,7 +25407,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="698" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="698" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A698" t="s">
         <v>1841</v>
       </c>
@@ -25228,7 +25436,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="699" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="699" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A699" t="s">
         <v>1844</v>
       </c>
@@ -25257,7 +25465,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="700" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="700" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A700" t="s">
         <v>1846</v>
       </c>
@@ -25286,7 +25494,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="701" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="701" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A701" t="s">
         <v>1848</v>
       </c>
@@ -25312,7 +25520,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="702" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="702" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A702" t="s">
         <v>1850</v>
       </c>
@@ -25341,7 +25549,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="703" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A703" t="s">
         <v>1853</v>
       </c>
@@ -25361,7 +25569,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="704" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A704" t="s">
         <v>1855</v>
       </c>
@@ -25381,7 +25589,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="705" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="705" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A705" t="s">
         <v>1857</v>
       </c>
@@ -25407,7 +25615,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="706" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="706" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A706" t="s">
         <v>1859</v>
       </c>
@@ -25436,7 +25644,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="707" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="707" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A707" t="s">
         <v>1862</v>
       </c>
@@ -25462,7 +25670,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="708" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="708" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A708" t="s">
         <v>1864</v>
       </c>
@@ -25491,7 +25699,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="709" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="709" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A709" t="s">
         <v>1866</v>
       </c>
@@ -25517,7 +25725,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="710" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="710" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A710" t="s">
         <v>1869</v>
       </c>
@@ -25546,7 +25754,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="711" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="711" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A711" t="s">
         <v>1872</v>
       </c>
@@ -25572,7 +25780,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="712" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="712" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A712" t="s">
         <v>1874</v>
       </c>
@@ -25601,7 +25809,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="713" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="713" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A713" t="s">
         <v>1876</v>
       </c>
@@ -25630,7 +25838,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="714" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A714" t="s">
         <v>1880</v>
       </c>
@@ -25650,7 +25858,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="715" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A715" t="s">
         <v>1882</v>
       </c>
@@ -25670,7 +25878,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="716" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A716" t="s">
         <v>1884</v>
       </c>
@@ -25690,7 +25898,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="717" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A717" t="s">
         <v>636</v>
       </c>
@@ -25709,8 +25917,11 @@
       <c r="I717" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="718" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L717">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A718" t="s">
         <v>1888</v>
       </c>
@@ -25736,7 +25947,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="719" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A719" t="s">
         <v>1891</v>
       </c>
@@ -25756,7 +25967,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="720" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="720" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A720" t="s">
         <v>1893</v>
       </c>
@@ -25785,7 +25996,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="721" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A721" t="s">
         <v>1223</v>
       </c>
@@ -25804,8 +26015,11 @@
       <c r="I721" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="722" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L721">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="722" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A722" t="s">
         <v>1898</v>
       </c>
@@ -25834,7 +26048,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="723" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A723" t="s">
         <v>1901</v>
       </c>
@@ -25854,7 +26068,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="724" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A724" t="s">
         <v>1903</v>
       </c>
@@ -25874,7 +26088,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="725" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A725" t="s">
         <v>845</v>
       </c>
@@ -25893,8 +26107,11 @@
       <c r="I725" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="726" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L725">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A726" t="s">
         <v>1907</v>
       </c>
@@ -25920,7 +26137,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="727" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="727" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A727" t="s">
         <v>1910</v>
       </c>
@@ -25946,7 +26163,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="728" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A728" t="s">
         <v>1912</v>
       </c>
@@ -25966,7 +26183,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="729" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="729" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A729" t="s">
         <v>1913</v>
       </c>
@@ -25995,7 +26212,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="730" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A730" t="s">
         <v>1916</v>
       </c>
@@ -26015,7 +26232,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="731" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="731" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A731" t="s">
         <v>1918</v>
       </c>
@@ -26041,7 +26258,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="732" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="732" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A732" t="s">
         <v>1921</v>
       </c>
@@ -26070,7 +26287,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="733" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="733" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A733" t="s">
         <v>1924</v>
       </c>
@@ -26099,7 +26316,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="734" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="734" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A734" t="s">
         <v>1926</v>
       </c>
@@ -26125,7 +26342,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="735" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="735" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A735" t="s">
         <v>1928</v>
       </c>
@@ -26154,7 +26371,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="736" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A736" t="s">
         <v>1930</v>
       </c>
@@ -26174,7 +26391,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="737" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="737" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A737" t="s">
         <v>1932</v>
       </c>
@@ -26203,7 +26420,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="738" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="738" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A738" t="s">
         <v>1934</v>
       </c>
@@ -26229,7 +26446,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="739" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A739" t="s">
         <v>1936</v>
       </c>
@@ -26249,7 +26466,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="740" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A740" t="s">
         <v>1938</v>
       </c>
@@ -26269,7 +26486,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="741" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="741" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A741" t="s">
         <v>1940</v>
       </c>
@@ -26295,7 +26512,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="742" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A742" t="s">
         <v>904</v>
       </c>
@@ -26314,8 +26531,11 @@
       <c r="I742" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="743" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L742">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="743" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A743" t="s">
         <v>1945</v>
       </c>
@@ -26341,7 +26561,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="744" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A744" t="s">
         <v>1947</v>
       </c>
@@ -26361,7 +26581,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="745" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="745" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A745" t="s">
         <v>1949</v>
       </c>
@@ -26387,7 +26607,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="746" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="746" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A746" t="s">
         <v>1951</v>
       </c>
@@ -26416,7 +26636,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="747" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A747" t="s">
         <v>1954</v>
       </c>
@@ -26436,7 +26656,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="748" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A748" t="s">
         <v>1054</v>
       </c>
@@ -26455,8 +26675,11 @@
       <c r="I748" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L748">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A749" t="s">
         <v>1958</v>
       </c>
@@ -26476,7 +26699,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="750" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="750" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A750" t="s">
         <v>1960</v>
       </c>
@@ -26505,7 +26728,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="751" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A751" t="s">
         <v>1962</v>
       </c>
@@ -26525,7 +26748,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="752" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="752" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A752" t="s">
         <v>1964</v>
       </c>
@@ -26554,7 +26777,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="753" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A753" t="s">
         <v>1966</v>
       </c>
@@ -26574,7 +26797,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="754" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="754" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A754" t="s">
         <v>1968</v>
       </c>
@@ -26603,7 +26826,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="755" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="755" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A755" t="s">
         <v>1970</v>
       </c>
@@ -26632,7 +26855,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="756" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="756" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A756" t="s">
         <v>1974</v>
       </c>
@@ -26661,7 +26884,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="757" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A757" t="s">
         <v>1589</v>
       </c>
@@ -26680,8 +26903,11 @@
       <c r="I757" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L757">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="758" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A758" t="s">
         <v>1979</v>
       </c>
@@ -26701,7 +26927,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="759" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="759" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A759" t="s">
         <v>1981</v>
       </c>
@@ -26727,7 +26953,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="760" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="760" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A760" t="s">
         <v>1983</v>
       </c>
@@ -26756,7 +26982,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="761" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="761" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A761" t="s">
         <v>1986</v>
       </c>
@@ -26785,7 +27011,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="762" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A762" t="s">
         <v>1988</v>
       </c>
@@ -26805,7 +27031,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="763" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="763" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A763" t="s">
         <v>1990</v>
       </c>
@@ -26834,7 +27060,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="764" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="764" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A764" t="s">
         <v>1993</v>
       </c>
@@ -26860,7 +27086,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="765" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="765" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A765" t="s">
         <v>1995</v>
       </c>
@@ -26889,7 +27115,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="766" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A766" t="s">
         <v>1998</v>
       </c>
@@ -26909,7 +27135,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="767" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="767" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A767" t="s">
         <v>2000</v>
       </c>
@@ -26935,7 +27161,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="768" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="768" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A768" t="s">
         <v>2003</v>
       </c>
@@ -26961,7 +27187,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="769" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="769" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A769" t="s">
         <v>2005</v>
       </c>
@@ -26990,7 +27216,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="770" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="770" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A770" t="s">
         <v>2008</v>
       </c>
@@ -27016,7 +27242,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="771" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="771" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A771" t="s">
         <v>2010</v>
       </c>
@@ -27045,7 +27271,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="772" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="772" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A772" t="s">
         <v>2013</v>
       </c>
@@ -27074,7 +27300,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="773" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="773" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A773" t="s">
         <v>2016</v>
       </c>
@@ -27094,7 +27320,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="774" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="774" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A774" t="s">
         <v>2018</v>
       </c>
@@ -27114,7 +27340,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="775" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="775" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A775" t="s">
         <v>2020</v>
       </c>
@@ -27134,7 +27360,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="776" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="776" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A776" t="s">
         <v>2022</v>
       </c>
@@ -27163,7 +27389,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="777" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="777" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A777" t="s">
         <v>2026</v>
       </c>
@@ -27183,7 +27409,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="778" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="778" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A778" t="s">
         <v>2028</v>
       </c>
@@ -27203,7 +27429,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="779" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="779" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A779" t="s">
         <v>2030</v>
       </c>
@@ -27232,7 +27458,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="780" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="780" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A780" t="s">
         <v>2033</v>
       </c>
@@ -27258,7 +27484,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="781" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="781" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A781" t="s">
         <v>2035</v>
       </c>
@@ -27287,7 +27513,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="782" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="782" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A782" t="s">
         <v>1577</v>
       </c>
@@ -27306,8 +27532,11 @@
       <c r="I782" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="783" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L782">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="783" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A783" t="s">
         <v>2040</v>
       </c>
@@ -27327,7 +27556,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="784" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="784" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A784" t="s">
         <v>2042</v>
       </c>
@@ -27356,7 +27585,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="785" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="785" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A785" t="s">
         <v>2044</v>
       </c>
@@ -27376,7 +27605,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="786" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="786" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A786" t="s">
         <v>2046</v>
       </c>
@@ -27402,7 +27631,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="787" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="787" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A787" t="s">
         <v>1657</v>
       </c>
@@ -27421,8 +27650,11 @@
       <c r="I787" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="788" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L787">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="788" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A788" t="s">
         <v>2051</v>
       </c>
@@ -27451,7 +27683,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="789" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="789" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A789" t="s">
         <v>2054</v>
       </c>
@@ -27480,7 +27712,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="790" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="790" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A790" t="s">
         <v>2056</v>
       </c>
@@ -27500,7 +27732,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="791" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="791" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A791" t="s">
         <v>2058</v>
       </c>
@@ -27529,7 +27761,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="792" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="792" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A792" t="s">
         <v>2061</v>
       </c>
@@ -27555,7 +27787,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="793" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="793" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A793" t="s">
         <v>2063</v>
       </c>
@@ -27581,7 +27813,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="794" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="794" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A794" t="s">
         <v>2066</v>
       </c>
@@ -27610,7 +27842,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="795" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="795" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A795" t="s">
         <v>2069</v>
       </c>
@@ -27639,7 +27871,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="796" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="796" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A796" t="s">
         <v>730</v>
       </c>
@@ -27658,8 +27890,11 @@
       <c r="I796" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="797" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L796">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="797" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A797" t="s">
         <v>2073</v>
       </c>
@@ -27679,7 +27914,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="798" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="798" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A798" t="s">
         <v>1649</v>
       </c>
@@ -27698,8 +27933,11 @@
       <c r="I798" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="799" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L798">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="799" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A799" t="s">
         <v>1100</v>
       </c>
@@ -27718,8 +27956,11 @@
       <c r="I799" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="800" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L799">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="800" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A800" t="s">
         <v>2079</v>
       </c>
@@ -27748,7 +27989,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="801" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="801" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A801" t="s">
         <v>2082</v>
       </c>
@@ -27774,7 +28015,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="802" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="802" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A802" t="s">
         <v>1800</v>
       </c>
@@ -27800,7 +28041,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="803" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="803" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A803" t="s">
         <v>2086</v>
       </c>
@@ -27829,7 +28070,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="804" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="804" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A804" t="s">
         <v>2089</v>
       </c>
@@ -27855,7 +28096,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="805" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="805" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A805" t="s">
         <v>2091</v>
       </c>
@@ -27881,7 +28122,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="806" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="806" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A806" t="s">
         <v>2093</v>
       </c>
@@ -27907,7 +28148,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="807" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="807" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A807" t="s">
         <v>2095</v>
       </c>
@@ -27933,7 +28174,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="808" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="808" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A808" t="s">
         <v>2097</v>
       </c>
@@ -27953,7 +28194,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="809" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="809" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A809" t="s">
         <v>2099</v>
       </c>
@@ -27982,7 +28223,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="810" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="810" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A810" t="s">
         <v>180</v>
       </c>
@@ -28008,7 +28249,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="811" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="811" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A811" t="s">
         <v>2104</v>
       </c>
@@ -28028,7 +28269,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="812" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="812" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A812" t="s">
         <v>2106</v>
       </c>
@@ -28048,7 +28289,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="813" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="813" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A813" t="s">
         <v>2108</v>
       </c>
@@ -28074,7 +28315,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="814" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="814" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A814" t="s">
         <v>2110</v>
       </c>
@@ -28094,7 +28335,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="815" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="815" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A815" t="s">
         <v>2112</v>
       </c>
@@ -28114,7 +28355,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="816" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="816" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A816" t="s">
         <v>2114</v>
       </c>
@@ -28134,7 +28375,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="817" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="817" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A817" t="s">
         <v>2116</v>
       </c>
@@ -28163,7 +28404,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="818" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="818" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A818" t="s">
         <v>1566</v>
       </c>
@@ -28182,8 +28423,11 @@
       <c r="I818" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="819" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L818">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="819" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A819" t="s">
         <v>2122</v>
       </c>
@@ -28203,7 +28447,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="820" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="820" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A820" t="s">
         <v>2124</v>
       </c>
@@ -28223,7 +28467,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="821" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="821" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A821" t="s">
         <v>2126</v>
       </c>
@@ -28243,7 +28487,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="822" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="822" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A822" t="s">
         <v>1763</v>
       </c>
@@ -28262,8 +28506,11 @@
       <c r="I822" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="823" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L822">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="823" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A823" t="s">
         <v>2130</v>
       </c>
@@ -28292,7 +28539,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="824" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="824" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A824" t="s">
         <v>1886</v>
       </c>
@@ -28311,8 +28558,11 @@
       <c r="I824" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="825" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L824">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="825" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A825" t="s">
         <v>2134</v>
       </c>
@@ -28332,7 +28582,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="826" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="826" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A826" t="s">
         <v>2136</v>
       </c>
@@ -28361,7 +28611,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="827" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="827" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A827" t="s">
         <v>2138</v>
       </c>
@@ -28387,7 +28637,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="828" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="828" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A828" t="s">
         <v>2140</v>
       </c>
@@ -28407,7 +28657,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="829" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="829" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A829" t="s">
         <v>2142</v>
       </c>
@@ -28436,7 +28686,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="830" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="830" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A830" t="s">
         <v>2145</v>
       </c>
@@ -28462,7 +28712,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="831" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="831" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A831" t="s">
         <v>716</v>
       </c>
@@ -28481,8 +28731,11 @@
       <c r="I831" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="832" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L831">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="832" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A832" t="s">
         <v>2149</v>
       </c>
@@ -28511,7 +28764,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="833" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="833" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A833" t="s">
         <v>2152</v>
       </c>
@@ -28531,7 +28784,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="834" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="834" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A834" t="s">
         <v>1784</v>
       </c>
@@ -28550,8 +28803,11 @@
       <c r="I834" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="835" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L834">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="835" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A835" t="s">
         <v>2156</v>
       </c>
@@ -28571,7 +28827,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="836" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="836" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A836" t="s">
         <v>2158</v>
       </c>
@@ -28591,7 +28847,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="837" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="837" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A837" t="s">
         <v>2160</v>
       </c>
@@ -28620,7 +28876,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="838" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="838" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A838" t="s">
         <v>2163</v>
       </c>
@@ -28649,7 +28905,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="839" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="839" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A839" t="s">
         <v>2166</v>
       </c>
@@ -28675,7 +28931,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="840" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="840" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A840" t="s">
         <v>2169</v>
       </c>
@@ -28701,7 +28957,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="841" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="841" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A841" t="s">
         <v>2172</v>
       </c>
@@ -28730,7 +28986,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="842" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="842" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A842" t="s">
         <v>2175</v>
       </c>
@@ -28750,7 +29006,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="843" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="843" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A843" t="s">
         <v>2177</v>
       </c>
@@ -28776,7 +29032,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="844" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="844" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A844" t="s">
         <v>2179</v>
       </c>
@@ -28796,7 +29052,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="845" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="845" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A845" t="s">
         <v>2181</v>
       </c>
@@ -28816,7 +29072,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="846" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="846" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A846" t="s">
         <v>2183</v>
       </c>
@@ -28836,7 +29092,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="847" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="847" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A847" t="s">
         <v>2185</v>
       </c>
@@ -28856,7 +29112,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="848" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="848" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A848" t="s">
         <v>2187</v>
       </c>
@@ -28876,7 +29132,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="849" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="849" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A849" t="s">
         <v>2189</v>
       </c>
@@ -28905,7 +29161,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="850" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="850" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A850" t="s">
         <v>2191</v>
       </c>
@@ -28931,7 +29187,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="851" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="851" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A851" t="s">
         <v>2193</v>
       </c>
@@ -28957,7 +29213,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="852" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="852" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A852" t="s">
         <v>2195</v>
       </c>
@@ -28977,7 +29233,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="853" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="853" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A853" t="s">
         <v>2197</v>
       </c>
@@ -29006,7 +29262,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="854" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="854" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A854" t="s">
         <v>2200</v>
       </c>
@@ -29032,16 +29288,32 @@
         <v>74</v>
       </c>
     </row>
+    <row r="868" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H868">
+        <f>(4+2+1+1)/4</f>
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K854" xr:uid="{925A2854-39F7-F346-981F-52D27C360F63}">
+  <autoFilter ref="A1:L854" xr:uid="{6BA9C85C-7FDB-4E53-B3F4-2E87B0320F57}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="k068lbwo"/>
+        <filter val="k06i2nrf"/>
+        <filter val="k076ov24"/>
+        <filter val="k07db6kn"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="3">
       <filters>
         <filter val="question"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:K834">
-      <sortCondition ref="B1:B854"/>
-    </sortState>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="{&quot;type&quot;:&quot;number&quot;,&quot;data&quot;:0}"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -29051,14 +29323,395 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F58D21E-B802-4D87-9697-2A838A1F50D2}">
+  <dimension ref="A1:D47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <f>AVERAGE(A1:A46)</f>
+        <v>1.326086956521739</v>
+      </c>
+      <c r="B47">
+        <f>AVERAGE(B1:B36)</f>
+        <v>1.3611111111111112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2203</v>
       </c>
@@ -29075,7 +29728,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2208</v>
       </c>
@@ -29092,7 +29745,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2211</v>
       </c>
